--- a/dist/checklists/core/xlsx/mixs/general/stx_fish_mixs_core.xlsx
+++ b/dist/checklists/core/xlsx/mixs/general/stx_fish_mixs_core.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="182">
   <si>
     <t>Study ID</t>
   </si>
@@ -273,12 +273,6 @@
   </si>
   <si>
     <t>e.g. 0.1218</t>
-  </si>
-  <si>
-    <t>The name (or acronym) representing the lead institution responsible for the study.</t>
-  </si>
-  <si>
-    <t>e.g. EI</t>
   </si>
   <si>
     <t>Imaging Protocol ID</t>
@@ -1106,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1124,10 +1118,9 @@
     <col min="10" max="12" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="57" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1170,11 +1163,8 @@
       <c r="N1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1217,11 +1207,8 @@
       <c r="N2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1264,11 +1251,8 @@
       <c r="N3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1285,14 +1269,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:O4">
+  <conditionalFormatting sqref="A1:N4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -1346,233 +1329,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="U1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="T2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="T3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1633,35 +1616,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
